--- a/data/epl-2020_excel.xlsx
+++ b/data/epl-2020_excel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://audaxonline-my.sharepoint.com/personal/kristof_menyhert_audax_nl/Documents/fogadas_simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC10488C195966DA5ADE58F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6736B0FA-4F4E-4CF1-8AA9-0FBFAF00E197}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AF4061-D3C9-4452-9B9A-BCDD9047E2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="epl-2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'epl-2020'!$A$1:$N$381</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="238">
   <si>
     <t>Round Number</t>
   </si>
@@ -736,6 +736,21 @@
   </si>
   <si>
     <t>2-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
@@ -1055,11 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I367" sqref="I367"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="F158" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1175,7 +1189,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1216,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1262,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1308,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1354,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1377,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1400,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1492,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1515,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1538,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1561,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1630,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1676,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1768,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1814,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1906,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1929,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1952,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1975,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2067,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2159,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2182,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2205,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2320,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2389,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2435,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2458,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2573,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7</v>
       </c>
@@ -2596,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7</v>
       </c>
@@ -2642,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7</v>
       </c>
@@ -2688,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -2711,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2757,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2803,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2826,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>8</v>
       </c>
@@ -2849,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2872,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8</v>
       </c>
@@ -2918,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2941,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2964,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2987,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3010,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>9</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -3102,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9</v>
       </c>
@@ -3148,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>9</v>
       </c>
@@ -3171,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9</v>
       </c>
@@ -3194,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9</v>
       </c>
@@ -3217,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>10</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>10</v>
       </c>
@@ -3263,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>10</v>
       </c>
@@ -3286,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10</v>
       </c>
@@ -3309,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>10</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -3355,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>10</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>10</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>10</v>
       </c>
@@ -3424,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11</v>
       </c>
@@ -3488,7 +3502,7 @@
         <v>5.5555555559999998</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>11</v>
       </c>
@@ -3511,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>11</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11</v>
       </c>
@@ -3557,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>11</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>11</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -3626,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>11</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11</v>
       </c>
@@ -3695,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>12</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -3787,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>12</v>
       </c>
@@ -3810,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -3902,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -3925,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>13</v>
       </c>
@@ -3948,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13</v>
       </c>
@@ -3971,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>13</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>13</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>13</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>13</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13</v>
       </c>
@@ -4132,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4224,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4247,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4339,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4362,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4385,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>15</v>
       </c>
@@ -4408,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15</v>
       </c>
@@ -4431,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15</v>
       </c>
@@ -4500,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15</v>
       </c>
@@ -4523,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15</v>
       </c>
@@ -4569,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>16</v>
       </c>
@@ -4638,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>16</v>
       </c>
@@ -4661,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>16</v>
       </c>
@@ -4702,7 +4716,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>16</v>
       </c>
@@ -4725,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>16</v>
       </c>
@@ -4748,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16</v>
       </c>
@@ -4771,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
@@ -4817,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>16</v>
       </c>
@@ -4858,7 +4872,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -4878,7 +4892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>17</v>
       </c>
@@ -4918,7 +4932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>17</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -4954,32 +4968,11 @@
       <c r="E165" t="s">
         <v>48</v>
       </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165">
-        <v>55</v>
-      </c>
-      <c r="I165">
-        <v>25</v>
-      </c>
-      <c r="J165">
-        <v>20</v>
-      </c>
-      <c r="K165">
-        <v>100</v>
-      </c>
-      <c r="L165">
-        <v>2</v>
-      </c>
-      <c r="M165">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="N165">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>17</v>
       </c>
@@ -4995,32 +4988,11 @@
       <c r="E166" t="s">
         <v>49</v>
       </c>
-      <c r="G166" t="s">
-        <v>21</v>
-      </c>
-      <c r="H166">
-        <v>37</v>
-      </c>
-      <c r="I166">
-        <v>30</v>
-      </c>
-      <c r="J166">
-        <v>33</v>
-      </c>
-      <c r="K166">
-        <v>100</v>
-      </c>
-      <c r="L166">
-        <v>2.7027027029999999</v>
-      </c>
-      <c r="M166">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="N166">
-        <v>3.0303030299999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>17</v>
       </c>
@@ -5036,32 +5008,11 @@
       <c r="E167" t="s">
         <v>16</v>
       </c>
-      <c r="G167" t="s">
-        <v>21</v>
-      </c>
-      <c r="H167">
-        <v>19</v>
-      </c>
-      <c r="I167">
-        <v>23</v>
-      </c>
-      <c r="J167">
-        <v>58</v>
-      </c>
-      <c r="K167">
-        <v>100</v>
-      </c>
-      <c r="L167">
-        <v>5.263157895</v>
-      </c>
-      <c r="M167">
-        <v>4.3478260869999996</v>
-      </c>
-      <c r="N167">
-        <v>1.724137931</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>17</v>
       </c>
@@ -5102,7 +5053,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>17</v>
       </c>
@@ -5118,32 +5069,11 @@
       <c r="E169" t="s">
         <v>40</v>
       </c>
-      <c r="G169" t="s">
-        <v>21</v>
-      </c>
-      <c r="H169">
-        <v>20</v>
-      </c>
-      <c r="I169">
-        <v>25</v>
-      </c>
-      <c r="J169">
-        <v>55</v>
-      </c>
-      <c r="K169">
-        <v>100</v>
-      </c>
-      <c r="L169">
-        <v>5</v>
-      </c>
-      <c r="M169">
-        <v>4</v>
-      </c>
-      <c r="N169">
-        <v>1.818181818</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>17</v>
       </c>
@@ -5159,32 +5089,11 @@
       <c r="E170" t="s">
         <v>23</v>
       </c>
-      <c r="G170" t="s">
-        <v>21</v>
-      </c>
-      <c r="H170">
-        <v>25</v>
-      </c>
-      <c r="I170">
-        <v>30</v>
-      </c>
-      <c r="J170">
-        <v>45</v>
-      </c>
-      <c r="K170">
-        <v>100</v>
-      </c>
-      <c r="L170">
-        <v>4</v>
-      </c>
-      <c r="M170">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="N170">
-        <v>2.2222222220000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>17</v>
       </c>
@@ -5204,28 +5113,20 @@
         <v>21</v>
       </c>
       <c r="H171">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I171">
         <v>21</v>
       </c>
       <c r="J171">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K171">
-        <v>100</v>
-      </c>
-      <c r="L171">
-        <v>7.692307692</v>
-      </c>
-      <c r="M171">
-        <v>4.7619047620000003</v>
-      </c>
-      <c r="N171">
-        <v>1.5151515149999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H171:J171)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>18</v>
       </c>
@@ -5266,7 +5167,7 @@
         <v>2.2222222220000001</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>18</v>
       </c>
@@ -5299,7 +5200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>18</v>
       </c>
@@ -5340,7 +5241,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>18</v>
       </c>
@@ -5381,7 +5282,7 @@
         <v>2.0833333330000001</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5422,7 +5323,7 @@
         <v>4.7619047620000003</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>19</v>
       </c>
@@ -5463,7 +5364,7 @@
         <v>1.6949152540000001</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>19</v>
       </c>
@@ -5504,7 +5405,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>19</v>
       </c>
@@ -5545,7 +5446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>19</v>
       </c>
@@ -5586,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>19</v>
       </c>
@@ -5619,7 +5520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>19</v>
       </c>
@@ -5660,7 +5561,7 @@
         <v>4.5454545450000001</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>19</v>
       </c>
@@ -5701,7 +5602,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>19</v>
       </c>
@@ -5733,20 +5634,8 @@
         <f>SUM(H184:J184)</f>
         <v>100</v>
       </c>
-      <c r="L184">
-        <f>1/(H184/100)</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="M184">
-        <f t="shared" ref="M184:N184" si="0">1/(I184/100)</f>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="N184">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037033</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>19</v>
       </c>
@@ -5787,7 +5676,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>19</v>
       </c>
@@ -5828,7 +5717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>19</v>
       </c>
@@ -5869,7 +5758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>19</v>
       </c>
@@ -5910,7 +5799,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>19</v>
       </c>
@@ -5951,7 +5840,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>19</v>
       </c>
@@ -5988,15 +5877,15 @@
         <v>5</v>
       </c>
       <c r="M190">
-        <f t="shared" ref="M190" si="1">1/(I190/100)</f>
+        <f t="shared" ref="M190" si="0">1/(I190/100)</f>
         <v>4</v>
       </c>
       <c r="N190">
-        <f t="shared" ref="N190" si="2">1/(J190/100)</f>
+        <f t="shared" ref="N190" si="1">1/(J190/100)</f>
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>19</v>
       </c>
@@ -6016,10 +5905,10 @@
         <v>21</v>
       </c>
       <c r="H191">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I191">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J191">
         <v>13</v>
@@ -6027,17 +5916,8 @@
       <c r="K191">
         <v>100</v>
       </c>
-      <c r="L191">
-        <v>1.4705882349999999</v>
-      </c>
-      <c r="M191">
-        <v>5.263157895</v>
-      </c>
-      <c r="N191">
-        <v>7.692307692</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>20</v>
       </c>
@@ -6078,7 +5958,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>20</v>
       </c>
@@ -6119,7 +5999,7 @@
         <v>2.7027027029999999</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>20</v>
       </c>
@@ -6160,7 +6040,7 @@
         <v>1.5151515149999999</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>20</v>
       </c>
@@ -6201,7 +6081,7 @@
         <v>2.1276595739999999</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>20</v>
       </c>
@@ -6242,7 +6122,7 @@
         <v>2.3809523810000002</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>20</v>
       </c>
@@ -6283,7 +6163,7 @@
         <v>5.8823529409999997</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>20</v>
       </c>
@@ -6324,7 +6204,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>20</v>
       </c>
@@ -6399,7 +6279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6428,19 +6308,11 @@
         <v>37</v>
       </c>
       <c r="K201">
-        <v>100</v>
-      </c>
-      <c r="L201">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="M201">
-        <v>3.0303030299999998</v>
-      </c>
-      <c r="N201">
-        <v>2.7027027029999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H201:J201)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>21</v>
       </c>
@@ -6482,7 +6354,7 @@
         <v>4.3478260869999996</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>21</v>
       </c>
@@ -6523,7 +6395,7 @@
         <v>5.8823529409999997</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>21</v>
       </c>
@@ -6564,7 +6436,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>21</v>
       </c>
@@ -6605,7 +6477,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>21</v>
       </c>
@@ -6646,7 +6518,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>21</v>
       </c>
@@ -6683,15 +6555,15 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="M207">
-        <f t="shared" ref="M207" si="3">1/(I207/100)</f>
+        <f t="shared" ref="M207" si="2">1/(I207/100)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="N207">
-        <f t="shared" ref="N207" si="4">1/(J207/100)</f>
+        <f t="shared" ref="N207" si="3">1/(J207/100)</f>
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>21</v>
       </c>
@@ -6732,7 +6604,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>21</v>
       </c>
@@ -6773,7 +6645,7 @@
         <v>1.851851852</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>21</v>
       </c>
@@ -6814,7 +6686,7 @@
         <v>5.263157895</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>21</v>
       </c>
@@ -6843,19 +6715,11 @@
         <v>58</v>
       </c>
       <c r="K211">
-        <v>100</v>
-      </c>
-      <c r="L211">
-        <v>5.8823529409999997</v>
-      </c>
-      <c r="M211">
-        <v>4</v>
-      </c>
-      <c r="N211">
-        <v>1.724137931</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H211:J211)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>22</v>
       </c>
@@ -6896,7 +6760,7 @@
         <v>4.3478260869999996</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>22</v>
       </c>
@@ -6937,7 +6801,7 @@
         <v>1.4084507040000001</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>22</v>
       </c>
@@ -6978,7 +6842,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>22</v>
       </c>
@@ -7011,7 +6875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>22</v>
       </c>
@@ -7052,7 +6916,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>22</v>
       </c>
@@ -7126,7 +6990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>22</v>
       </c>
@@ -7167,7 +7031,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>22</v>
       </c>
@@ -7208,7 +7072,7 @@
         <v>3.448275862</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>22</v>
       </c>
@@ -7228,10 +7092,10 @@
         <v>21</v>
       </c>
       <c r="H221">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I221">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J221">
         <v>12</v>
@@ -7239,17 +7103,8 @@
       <c r="K221">
         <v>100</v>
       </c>
-      <c r="L221">
-        <v>1.3698630140000001</v>
-      </c>
-      <c r="M221">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="N221">
-        <v>8.3333333330000006</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>23</v>
       </c>
@@ -7290,7 +7145,7 @@
         <v>2.6315789469999999</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>23</v>
       </c>
@@ -7331,7 +7186,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>23</v>
       </c>
@@ -7372,7 +7227,7 @@
         <v>2.6315789469999999</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>23</v>
       </c>
@@ -7413,7 +7268,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>23</v>
       </c>
@@ -7443,15 +7298,6 @@
       </c>
       <c r="K226">
         <v>100</v>
-      </c>
-      <c r="L226">
-        <v>2.7777777779999999</v>
-      </c>
-      <c r="M226">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="N226">
-        <v>2.9411764709999999</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -7487,7 +7333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>23</v>
       </c>
@@ -7528,7 +7374,7 @@
         <v>2.7777777779999999</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>23</v>
       </c>
@@ -7569,7 +7415,7 @@
         <v>1.4925373129999999</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>23</v>
       </c>
@@ -7610,7 +7456,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>23</v>
       </c>
@@ -7651,7 +7497,7 @@
         <v>1.724137931</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>24</v>
       </c>
@@ -7692,7 +7538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>24</v>
       </c>
@@ -7733,7 +7579,7 @@
         <v>2.2222222220000001</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>24</v>
       </c>
@@ -7774,7 +7620,7 @@
         <v>5.5555555559999998</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>24</v>
       </c>
@@ -7815,7 +7661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>24</v>
       </c>
@@ -7857,7 +7703,7 @@
         <v>5.5555555559999998</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>24</v>
       </c>
@@ -7886,19 +7732,11 @@
         <v>50</v>
       </c>
       <c r="K237">
-        <v>100</v>
-      </c>
-      <c r="L237">
-        <v>3.5714285710000002</v>
-      </c>
-      <c r="M237">
-        <v>4.5454545450000001</v>
-      </c>
-      <c r="N237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H237:J237)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>24</v>
       </c>
@@ -7939,7 +7777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>24</v>
       </c>
@@ -7980,7 +7818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>24</v>
       </c>
@@ -8017,15 +7855,15 @@
         <v>5</v>
       </c>
       <c r="M240">
-        <f t="shared" ref="M240" si="5">1/(I240/100)</f>
+        <f t="shared" ref="M240" si="4">1/(I240/100)</f>
         <v>4.166666666666667</v>
       </c>
       <c r="N240">
-        <f t="shared" ref="N240" si="6">1/(J240/100)</f>
+        <f t="shared" ref="N240" si="5">1/(J240/100)</f>
         <v>1.7857142857142856</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>24</v>
       </c>
@@ -8066,7 +7904,7 @@
         <v>5.263157895</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>25</v>
       </c>
@@ -8107,7 +7945,7 @@
         <v>1.724137931</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>25</v>
       </c>
@@ -8148,7 +7986,7 @@
         <v>1.923076923</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>25</v>
       </c>
@@ -8189,7 +8027,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>25</v>
       </c>
@@ -8230,7 +8068,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>25</v>
       </c>
@@ -8271,7 +8109,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>25</v>
       </c>
@@ -8291,13 +8129,13 @@
         <v>21</v>
       </c>
       <c r="H247">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I247">
         <v>28</v>
       </c>
       <c r="J247">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K247">
         <f>SUM(H247:J247)</f>
@@ -8324,10 +8162,10 @@
         <v>21</v>
       </c>
       <c r="H248">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I248">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J248">
         <v>15</v>
@@ -8337,7 +8175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>25</v>
       </c>
@@ -8378,7 +8216,7 @@
         <v>1.851851852</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>25</v>
       </c>
@@ -8419,7 +8257,7 @@
         <v>2.2727272730000001</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>25</v>
       </c>
@@ -8460,7 +8298,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>26</v>
       </c>
@@ -8497,15 +8335,15 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="M252">
-        <f t="shared" ref="M252" si="7">1/(I252/100)</f>
+        <f t="shared" ref="M252" si="6">1/(I252/100)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="N252">
-        <f t="shared" ref="N252" si="8">1/(J252/100)</f>
+        <f t="shared" ref="N252" si="7">1/(J252/100)</f>
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>26</v>
       </c>
@@ -8546,7 +8384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>26</v>
       </c>
@@ -8588,7 +8426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -8629,7 +8467,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>26</v>
       </c>
@@ -8670,7 +8508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>26</v>
       </c>
@@ -8711,7 +8549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>26</v>
       </c>
@@ -8752,7 +8590,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>26</v>
       </c>
@@ -8781,19 +8619,11 @@
         <v>73</v>
       </c>
       <c r="K259">
-        <v>100</v>
-      </c>
-      <c r="L259">
-        <v>10</v>
-      </c>
-      <c r="M259">
-        <v>5.8823529409999997</v>
-      </c>
-      <c r="N259">
-        <v>1.3698630140000001</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H259:J259)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>26</v>
       </c>
@@ -8834,7 +8664,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>26</v>
       </c>
@@ -8875,7 +8705,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>27</v>
       </c>
@@ -8916,7 +8746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>27</v>
       </c>
@@ -8957,7 +8787,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>27</v>
       </c>
@@ -8998,7 +8828,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>27</v>
       </c>
@@ -9031,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>27</v>
       </c>
@@ -9051,28 +8881,20 @@
         <v>21</v>
       </c>
       <c r="H266">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I266">
         <v>15</v>
       </c>
       <c r="J266">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K266">
-        <v>100</v>
-      </c>
-      <c r="L266">
-        <v>1.3333333329999999</v>
-      </c>
-      <c r="M266">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="N266">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H266:J266)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>27</v>
       </c>
@@ -9109,15 +8931,15 @@
         <v>1.8867924528301885</v>
       </c>
       <c r="M267">
-        <f t="shared" ref="M267" si="9">1/(I267/100)</f>
+        <f t="shared" ref="M267" si="8">1/(I267/100)</f>
         <v>4.3478260869565215</v>
       </c>
       <c r="N267">
-        <f t="shared" ref="N267" si="10">1/(J267/100)</f>
+        <f t="shared" ref="N267" si="9">1/(J267/100)</f>
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>27</v>
       </c>
@@ -9158,7 +8980,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>27</v>
       </c>
@@ -9199,7 +9021,7 @@
         <v>5.8823529409999997</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>27</v>
       </c>
@@ -9240,7 +9062,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>27</v>
       </c>
@@ -9281,7 +9103,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>28</v>
       </c>
@@ -9322,7 +9144,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>28</v>
       </c>
@@ -9363,7 +9185,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>28</v>
       </c>
@@ -9405,7 +9227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>28</v>
       </c>
@@ -9446,7 +9268,7 @@
         <v>1.388888889</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>28</v>
       </c>
@@ -9487,7 +9309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>28</v>
       </c>
@@ -9561,7 +9383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>28</v>
       </c>
@@ -9602,7 +9424,7 @@
         <v>2.0833333330000001</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>28</v>
       </c>
@@ -9643,7 +9465,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>28</v>
       </c>
@@ -9663,28 +9485,20 @@
         <v>21</v>
       </c>
       <c r="H281">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I281">
         <v>20</v>
       </c>
       <c r="J281">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K281">
-        <v>100</v>
-      </c>
-      <c r="L281">
-        <v>10</v>
-      </c>
-      <c r="M281">
-        <v>5</v>
-      </c>
-      <c r="N281">
-        <v>1.428571429</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H281:J281)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>29</v>
       </c>
@@ -9725,7 +9539,7 @@
         <v>3.0303030299999998</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>29</v>
       </c>
@@ -9766,7 +9580,7 @@
         <v>1.612903226</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>29</v>
       </c>
@@ -9803,15 +9617,15 @@
         <v>4.166666666666667</v>
       </c>
       <c r="M284">
-        <f t="shared" ref="M284" si="11">1/(I284/100)</f>
+        <f t="shared" ref="M284" si="10">1/(I284/100)</f>
         <v>4.3478260869565215</v>
       </c>
       <c r="N284">
-        <f t="shared" ref="N284" si="12">1/(J284/100)</f>
+        <f t="shared" ref="N284" si="11">1/(J284/100)</f>
         <v>1.8867924528301885</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>29</v>
       </c>
@@ -9852,7 +9666,7 @@
         <v>2.3255813949999999</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>29</v>
       </c>
@@ -9872,28 +9686,20 @@
         <v>21</v>
       </c>
       <c r="H286">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I286">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J286">
         <v>23</v>
       </c>
       <c r="K286">
-        <v>100</v>
-      </c>
-      <c r="L286">
-        <v>2.0408163269999999</v>
-      </c>
-      <c r="M286">
-        <v>3.5714285710000002</v>
-      </c>
-      <c r="N286">
-        <v>4.3478260869999996</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H286:J286)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>29</v>
       </c>
@@ -9934,7 +9740,7 @@
         <v>9.0909090910000003</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>29</v>
       </c>
@@ -9975,7 +9781,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>29</v>
       </c>
@@ -10016,7 +9822,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>29</v>
       </c>
@@ -10049,7 +9855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>29</v>
       </c>
@@ -10090,7 +9896,7 @@
         <v>2.2222222220000001</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>30</v>
       </c>
@@ -10119,19 +9925,11 @@
         <v>55</v>
       </c>
       <c r="K292">
-        <v>100</v>
-      </c>
-      <c r="L292">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="M292">
-        <v>3.3333333330000001</v>
-      </c>
-      <c r="N292">
-        <v>1.818181818</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H292:J292)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>30</v>
       </c>
@@ -10172,7 +9970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>30</v>
       </c>
@@ -10213,7 +10011,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>30</v>
       </c>
@@ -10255,7 +10053,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>30</v>
       </c>
@@ -10296,7 +10094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>30</v>
       </c>
@@ -10370,7 +10168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>30</v>
       </c>
@@ -10411,7 +10209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>30</v>
       </c>
@@ -10452,7 +10250,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>30</v>
       </c>
@@ -10493,7 +10291,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>31</v>
       </c>
@@ -10526,7 +10324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>31</v>
       </c>
@@ -10567,7 +10365,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>31</v>
       </c>
@@ -10608,7 +10406,7 @@
         <v>1.923076923</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>31</v>
       </c>
@@ -10649,7 +10447,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>31</v>
       </c>
@@ -10678,19 +10476,11 @@
         <v>17</v>
       </c>
       <c r="K306">
-        <v>100</v>
-      </c>
-      <c r="L306">
-        <v>1.5625</v>
-      </c>
-      <c r="M306">
-        <v>5.263157895</v>
-      </c>
-      <c r="N306">
-        <v>5.8823529409999997</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H306:J306)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>31</v>
       </c>
@@ -10731,7 +10521,7 @@
         <v>7.692307692</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>31</v>
       </c>
@@ -10772,7 +10562,7 @@
         <v>1.6949152540000001</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>31</v>
       </c>
@@ -10809,15 +10599,15 @@
         <v>2.3255813953488373</v>
       </c>
       <c r="M309">
-        <f t="shared" ref="M309" si="13">1/(I309/100)</f>
+        <f t="shared" ref="M309" si="12">1/(I309/100)</f>
         <v>3.8461538461538458</v>
       </c>
       <c r="N309">
-        <f t="shared" ref="N309" si="14">1/(J309/100)</f>
+        <f t="shared" ref="N309" si="13">1/(J309/100)</f>
         <v>3.2258064516129035</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>31</v>
       </c>
@@ -10858,7 +10648,7 @@
         <v>2.0833333330000001</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>31</v>
       </c>
@@ -10899,7 +10689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>32</v>
       </c>
@@ -10940,7 +10730,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>32</v>
       </c>
@@ -10981,7 +10771,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>32</v>
       </c>
@@ -11022,7 +10812,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>32</v>
       </c>
@@ -11064,7 +10854,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>32</v>
       </c>
@@ -11093,19 +10883,11 @@
         <v>67</v>
       </c>
       <c r="K316">
-        <v>100</v>
-      </c>
-      <c r="L316">
-        <v>7.692307692</v>
-      </c>
-      <c r="M316">
-        <v>5</v>
-      </c>
-      <c r="N316">
-        <v>1.4925373129999999</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H316:J316)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>32</v>
       </c>
@@ -11179,7 +10961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>32</v>
       </c>
@@ -11220,7 +11002,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>32</v>
       </c>
@@ -11261,7 +11043,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>32</v>
       </c>
@@ -11302,7 +11084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>33</v>
       </c>
@@ -11335,7 +11117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>33</v>
       </c>
@@ -11376,7 +11158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>33</v>
       </c>
@@ -11417,7 +11199,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>33</v>
       </c>
@@ -11443,26 +11225,26 @@
         <v>23</v>
       </c>
       <c r="J325">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="K325">
         <f>SUM(H325:J325)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L325">
         <f>1/(H325/100)</f>
         <v>4</v>
       </c>
       <c r="M325">
-        <f t="shared" ref="M325" si="15">1/(I325/100)</f>
+        <f t="shared" ref="M325" si="14">1/(I325/100)</f>
         <v>4.3478260869565215</v>
       </c>
       <c r="N325">
-        <f t="shared" ref="N325" si="16">1/(J325/100)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N325" si="15">1/(J325/100)</f>
+        <v>1.9230769230769229</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>33</v>
       </c>
@@ -11503,7 +11285,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>33</v>
       </c>
@@ -11523,28 +11305,20 @@
         <v>21</v>
       </c>
       <c r="H327">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I327">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J327">
         <v>13</v>
       </c>
       <c r="K327">
-        <v>100</v>
-      </c>
-      <c r="L327">
-        <v>1.4084507040000001</v>
-      </c>
-      <c r="M327">
-        <v>6.25</v>
-      </c>
-      <c r="N327">
-        <v>7.692307692</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H327:J327)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>33</v>
       </c>
@@ -11585,7 +11359,7 @@
         <v>7.692307692</v>
       </c>
     </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>33</v>
       </c>
@@ -11626,7 +11400,7 @@
         <v>2.7777777779999999</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>33</v>
       </c>
@@ -11667,7 +11441,7 @@
         <v>1.923076923</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>33</v>
       </c>
@@ -11708,7 +11482,7 @@
         <v>2.6315789469999999</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>34</v>
       </c>
@@ -11749,7 +11523,7 @@
         <v>2.6315789469999999</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>34</v>
       </c>
@@ -11790,7 +11564,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>34</v>
       </c>
@@ -11831,7 +11605,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>34</v>
       </c>
@@ -11872,7 +11646,7 @@
         <v>1.4084507040000001</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>34</v>
       </c>
@@ -11934,20 +11708,20 @@
         <v>21</v>
       </c>
       <c r="H337">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I337">
         <v>29</v>
       </c>
       <c r="J337">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K337">
         <f>SUM(H337:J337)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>34</v>
       </c>
@@ -11988,7 +11762,7 @@
         <v>1.923076923</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>34</v>
       </c>
@@ -12029,7 +11803,7 @@
         <v>1.9607843140000001</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>34</v>
       </c>
@@ -12070,7 +11844,7 @@
         <v>7.692307692</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>34</v>
       </c>
@@ -12111,7 +11885,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>35</v>
       </c>
@@ -12152,7 +11926,7 @@
         <v>5.263157895</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>35</v>
       </c>
@@ -12189,15 +11963,15 @@
         <v>3.2258064516129035</v>
       </c>
       <c r="M343">
-        <f t="shared" ref="M343" si="17">1/(I343/100)</f>
+        <f t="shared" ref="M343" si="16">1/(I343/100)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="N343">
-        <f t="shared" ref="N343" si="18">1/(J343/100)</f>
+        <f t="shared" ref="N343" si="17">1/(J343/100)</f>
         <v>2.5641025641025639</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>35</v>
       </c>
@@ -12238,7 +12012,7 @@
         <v>2.7777777779999999</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>35</v>
       </c>
@@ -12279,7 +12053,7 @@
         <v>1.818181818</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>35</v>
       </c>
@@ -12320,7 +12094,7 @@
         <v>7.1428571429999996</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>35</v>
       </c>
@@ -12340,28 +12114,20 @@
         <v>21</v>
       </c>
       <c r="H347">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I347">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J347">
         <v>13</v>
       </c>
       <c r="K347">
-        <v>100</v>
-      </c>
-      <c r="L347">
-        <v>1.4084507040000001</v>
-      </c>
-      <c r="M347">
-        <v>6.25</v>
-      </c>
-      <c r="N347">
-        <v>7.692307692</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H347:J347)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>35</v>
       </c>
@@ -12402,7 +12168,7 @@
         <v>4.3478260869999996</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>35</v>
       </c>
@@ -12443,7 +12209,7 @@
         <v>2.2222222220000001</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>35</v>
       </c>
@@ -12476,7 +12242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>35</v>
       </c>
@@ -12517,7 +12283,7 @@
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>36</v>
       </c>
@@ -12558,7 +12324,7 @@
         <v>2.6315789469999999</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>36</v>
       </c>
@@ -12599,7 +12365,7 @@
         <v>2.1276595739999999</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>36</v>
       </c>
@@ -12674,7 +12440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>36</v>
       </c>
@@ -12703,19 +12469,11 @@
         <v>73</v>
       </c>
       <c r="K356">
-        <v>100</v>
-      </c>
-      <c r="L356">
-        <v>8.3333333330000006</v>
-      </c>
-      <c r="M356">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="N356">
-        <v>1.3698630140000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H356:J356)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>36</v>
       </c>
@@ -12756,7 +12514,7 @@
         <v>2.2727272730000001</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>36</v>
       </c>
@@ -12797,7 +12555,7 @@
         <v>3.846153846</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>36</v>
       </c>
@@ -12838,7 +12596,7 @@
         <v>1.4084507040000001</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>36</v>
       </c>
@@ -12879,7 +12637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>36</v>
       </c>
@@ -12920,7 +12678,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>37</v>
       </c>
@@ -12961,7 +12719,7 @@
         <v>1.428571429</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>37</v>
       </c>
@@ -12990,19 +12748,11 @@
         <v>73</v>
       </c>
       <c r="K363">
-        <v>100</v>
-      </c>
-      <c r="L363">
-        <v>8.3333333330000006</v>
-      </c>
-      <c r="M363">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="N363">
-        <v>1.3698630140000001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H363:J363)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>37</v>
       </c>
@@ -13043,7 +12793,7 @@
         <v>2.9411764709999999</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>37</v>
       </c>
@@ -13084,7 +12834,7 @@
         <v>2.1276595739999999</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>37</v>
       </c>
@@ -13159,7 +12909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>37</v>
       </c>
@@ -13200,7 +12950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>37</v>
       </c>
@@ -13241,7 +12991,7 @@
         <v>3.448275862</v>
       </c>
     </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>37</v>
       </c>
@@ -13282,7 +13032,7 @@
         <v>4.5454545450000001</v>
       </c>
     </row>
-    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>37</v>
       </c>
@@ -13323,7 +13073,7 @@
         <v>2.5641025640000001</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>38</v>
       </c>
@@ -13364,7 +13114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>38</v>
       </c>
@@ -13405,7 +13155,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>38</v>
       </c>
@@ -13446,7 +13196,7 @@
         <v>2.7777777779999999</v>
       </c>
     </row>
-    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>38</v>
       </c>
@@ -13487,7 +13237,7 @@
         <v>3.5714285710000002</v>
       </c>
     </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>38</v>
       </c>
@@ -13528,7 +13278,7 @@
         <v>3.0303030299999998</v>
       </c>
     </row>
-    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>38</v>
       </c>
@@ -13557,19 +13307,11 @@
         <v>14</v>
       </c>
       <c r="K377">
-        <v>100</v>
-      </c>
-      <c r="L377">
-        <v>1.4492753620000001</v>
-      </c>
-      <c r="M377">
-        <v>5.8823529409999997</v>
-      </c>
-      <c r="N377">
-        <v>7.1428571429999996</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>SUM(H377:J377)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>38</v>
       </c>
@@ -13602,7 +13344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>38</v>
       </c>
@@ -13643,7 +13385,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>38</v>
       </c>
@@ -13684,7 +13426,7 @@
         <v>2.8571428569999999</v>
       </c>
     </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>38</v>
       </c>
@@ -13721,22 +13463,16 @@
         <v>5</v>
       </c>
       <c r="M381">
-        <f t="shared" ref="M381" si="19">1/(I381/100)</f>
+        <f t="shared" ref="M381" si="18">1/(I381/100)</f>
         <v>4</v>
       </c>
       <c r="N381">
-        <f t="shared" ref="N381" si="20">1/(J381/100)</f>
+        <f t="shared" ref="N381" si="19">1/(J381/100)</f>
         <v>1.8181818181818181</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N381" xr:uid="{A93AED01-EC92-4858-87E9-C7A4D68B9DF9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Man Utd"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N381" xr:uid="{A93AED01-EC92-4858-87E9-C7A4D68B9DF9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
